--- a/001. Database/005. Table Inserts/XML files/all Countries.xlsx
+++ b/001. Database/005. Table Inserts/XML files/all Countries.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Messanger\MessangerDB\Excel reader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\HealthcareForm\001. Database\005. Table Inserts\XML files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B51051-DAAC-4C80-9A6B-B95B15628D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="748">
   <si>
     <t>name</t>
   </si>
@@ -40,15 +41,6 @@
   </si>
   <si>
     <t>AFG</t>
-  </si>
-  <si>
-    <t>Ã…land Islands</t>
-  </si>
-  <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>ALA</t>
   </si>
   <si>
     <t>Albania</t>
@@ -2277,7 +2269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3077,23 +3069,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D250"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3121,7 +3113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3132,10 +3124,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3146,10 +3138,10 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3160,10 +3152,10 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3174,10 +3166,10 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3188,10 +3180,10 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3202,10 +3194,10 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3216,10 +3208,10 @@
         <v>27</v>
       </c>
       <c r="D9">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3230,10 +3222,10 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3244,10 +3236,10 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -3258,10 +3250,10 @@
         <v>36</v>
       </c>
       <c r="D12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -3272,10 +3264,10 @@
         <v>39</v>
       </c>
       <c r="D13">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3286,10 +3278,10 @@
         <v>42</v>
       </c>
       <c r="D14">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -3300,10 +3292,10 @@
         <v>45</v>
       </c>
       <c r="D15">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -3314,10 +3306,10 @@
         <v>48</v>
       </c>
       <c r="D16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3328,10 +3320,10 @@
         <v>51</v>
       </c>
       <c r="D17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3342,10 +3334,10 @@
         <v>54</v>
       </c>
       <c r="D18">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3356,10 +3348,10 @@
         <v>57</v>
       </c>
       <c r="D19">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3370,10 +3362,10 @@
         <v>60</v>
       </c>
       <c r="D20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -3384,10 +3376,10 @@
         <v>63</v>
       </c>
       <c r="D21">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -3398,10 +3390,10 @@
         <v>66</v>
       </c>
       <c r="D22">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -3412,10 +3404,10 @@
         <v>69</v>
       </c>
       <c r="D23">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -3426,10 +3418,10 @@
         <v>72</v>
       </c>
       <c r="D24">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -3440,10 +3432,10 @@
         <v>75</v>
       </c>
       <c r="D25">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -3454,10 +3446,10 @@
         <v>78</v>
       </c>
       <c r="D26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -3468,10 +3460,10 @@
         <v>81</v>
       </c>
       <c r="D27">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -3482,10 +3474,10 @@
         <v>84</v>
       </c>
       <c r="D28">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -3496,10 +3488,10 @@
         <v>87</v>
       </c>
       <c r="D29">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -3510,10 +3502,10 @@
         <v>90</v>
       </c>
       <c r="D30">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -3524,10 +3516,10 @@
         <v>93</v>
       </c>
       <c r="D31">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -3538,10 +3530,10 @@
         <v>96</v>
       </c>
       <c r="D32">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -3552,10 +3544,10 @@
         <v>99</v>
       </c>
       <c r="D33">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -3566,10 +3558,10 @@
         <v>102</v>
       </c>
       <c r="D34">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -3580,10 +3572,10 @@
         <v>105</v>
       </c>
       <c r="D35">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -3594,10 +3586,10 @@
         <v>108</v>
       </c>
       <c r="D36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -3608,10 +3600,10 @@
         <v>111</v>
       </c>
       <c r="D37">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -3622,10 +3614,10 @@
         <v>114</v>
       </c>
       <c r="D38">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -3636,10 +3628,10 @@
         <v>117</v>
       </c>
       <c r="D39">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -3650,10 +3642,10 @@
         <v>120</v>
       </c>
       <c r="D40">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -3664,10 +3656,10 @@
         <v>123</v>
       </c>
       <c r="D41">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -3678,10 +3670,10 @@
         <v>126</v>
       </c>
       <c r="D42">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -3692,10 +3684,10 @@
         <v>129</v>
       </c>
       <c r="D43">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -3706,10 +3698,10 @@
         <v>132</v>
       </c>
       <c r="D44">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3720,10 +3712,10 @@
         <v>135</v>
       </c>
       <c r="D45">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -3734,10 +3726,10 @@
         <v>138</v>
       </c>
       <c r="D46">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -3748,10 +3740,10 @@
         <v>141</v>
       </c>
       <c r="D47">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -3762,10 +3754,10 @@
         <v>144</v>
       </c>
       <c r="D48">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -3776,10 +3768,10 @@
         <v>147</v>
       </c>
       <c r="D49">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -3790,10 +3782,10 @@
         <v>150</v>
       </c>
       <c r="D50">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -3804,10 +3796,10 @@
         <v>153</v>
       </c>
       <c r="D51">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -3818,10 +3810,10 @@
         <v>156</v>
       </c>
       <c r="D52">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -3832,10 +3824,10 @@
         <v>159</v>
       </c>
       <c r="D53">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -3846,10 +3838,10 @@
         <v>162</v>
       </c>
       <c r="D54">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -3860,10 +3852,10 @@
         <v>165</v>
       </c>
       <c r="D55">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -3874,10 +3866,10 @@
         <v>168</v>
       </c>
       <c r="D56">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>169</v>
       </c>
@@ -3888,10 +3880,10 @@
         <v>171</v>
       </c>
       <c r="D57">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -3902,10 +3894,10 @@
         <v>174</v>
       </c>
       <c r="D58">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -3916,10 +3908,10 @@
         <v>177</v>
       </c>
       <c r="D59">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -3930,10 +3922,10 @@
         <v>180</v>
       </c>
       <c r="D60">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -3944,10 +3936,10 @@
         <v>183</v>
       </c>
       <c r="D61">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -3958,10 +3950,10 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -3972,10 +3964,10 @@
         <v>189</v>
       </c>
       <c r="D63">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -3986,10 +3978,10 @@
         <v>192</v>
       </c>
       <c r="D64">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -4000,10 +3992,10 @@
         <v>195</v>
       </c>
       <c r="D65">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -4014,10 +4006,10 @@
         <v>198</v>
       </c>
       <c r="D66">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>199</v>
       </c>
@@ -4028,10 +4020,10 @@
         <v>201</v>
       </c>
       <c r="D67">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -4042,10 +4034,10 @@
         <v>204</v>
       </c>
       <c r="D68">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>205</v>
       </c>
@@ -4056,10 +4048,10 @@
         <v>207</v>
       </c>
       <c r="D69">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -4070,10 +4062,10 @@
         <v>210</v>
       </c>
       <c r="D70">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -4084,10 +4076,10 @@
         <v>213</v>
       </c>
       <c r="D71">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -4098,10 +4090,10 @@
         <v>216</v>
       </c>
       <c r="D72">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -4112,10 +4104,10 @@
         <v>219</v>
       </c>
       <c r="D73">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>220</v>
       </c>
@@ -4126,10 +4118,10 @@
         <v>222</v>
       </c>
       <c r="D74">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -4140,10 +4132,10 @@
         <v>225</v>
       </c>
       <c r="D75">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>226</v>
       </c>
@@ -4154,10 +4146,10 @@
         <v>228</v>
       </c>
       <c r="D76">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>229</v>
       </c>
@@ -4168,10 +4160,10 @@
         <v>231</v>
       </c>
       <c r="D77">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>232</v>
       </c>
@@ -4182,10 +4174,10 @@
         <v>234</v>
       </c>
       <c r="D78">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>235</v>
       </c>
@@ -4196,10 +4188,10 @@
         <v>237</v>
       </c>
       <c r="D79">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>238</v>
       </c>
@@ -4210,10 +4202,10 @@
         <v>240</v>
       </c>
       <c r="D80">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>241</v>
       </c>
@@ -4224,10 +4216,10 @@
         <v>243</v>
       </c>
       <c r="D81">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>244</v>
       </c>
@@ -4238,10 +4230,10 @@
         <v>246</v>
       </c>
       <c r="D82">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>247</v>
       </c>
@@ -4252,10 +4244,10 @@
         <v>249</v>
       </c>
       <c r="D83">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>250</v>
       </c>
@@ -4266,10 +4258,10 @@
         <v>252</v>
       </c>
       <c r="D84">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>253</v>
       </c>
@@ -4280,10 +4272,10 @@
         <v>255</v>
       </c>
       <c r="D85">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>256</v>
       </c>
@@ -4294,10 +4286,10 @@
         <v>258</v>
       </c>
       <c r="D86">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>259</v>
       </c>
@@ -4308,10 +4300,10 @@
         <v>261</v>
       </c>
       <c r="D87">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>262</v>
       </c>
@@ -4322,10 +4314,10 @@
         <v>264</v>
       </c>
       <c r="D88">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>265</v>
       </c>
@@ -4336,10 +4328,10 @@
         <v>267</v>
       </c>
       <c r="D89">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -4350,10 +4342,10 @@
         <v>270</v>
       </c>
       <c r="D90">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>271</v>
       </c>
@@ -4364,10 +4356,10 @@
         <v>273</v>
       </c>
       <c r="D91">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -4378,10 +4370,10 @@
         <v>276</v>
       </c>
       <c r="D92">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>277</v>
       </c>
@@ -4392,10 +4384,10 @@
         <v>279</v>
       </c>
       <c r="D93">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>280</v>
       </c>
@@ -4406,10 +4398,10 @@
         <v>282</v>
       </c>
       <c r="D94">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>283</v>
       </c>
@@ -4420,10 +4412,10 @@
         <v>285</v>
       </c>
       <c r="D95">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -4434,10 +4426,10 @@
         <v>288</v>
       </c>
       <c r="D96">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>289</v>
       </c>
@@ -4448,10 +4440,10 @@
         <v>291</v>
       </c>
       <c r="D97">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>292</v>
       </c>
@@ -4462,10 +4454,10 @@
         <v>294</v>
       </c>
       <c r="D98">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>295</v>
       </c>
@@ -4476,10 +4468,10 @@
         <v>297</v>
       </c>
       <c r="D99">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>298</v>
       </c>
@@ -4490,10 +4482,10 @@
         <v>300</v>
       </c>
       <c r="D100">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>301</v>
       </c>
@@ -4504,10 +4496,10 @@
         <v>303</v>
       </c>
       <c r="D101">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>304</v>
       </c>
@@ -4518,10 +4510,10 @@
         <v>306</v>
       </c>
       <c r="D102">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>307</v>
       </c>
@@ -4532,10 +4524,10 @@
         <v>309</v>
       </c>
       <c r="D103">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>310</v>
       </c>
@@ -4546,10 +4538,10 @@
         <v>312</v>
       </c>
       <c r="D104">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>313</v>
       </c>
@@ -4560,10 +4552,10 @@
         <v>315</v>
       </c>
       <c r="D105">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>316</v>
       </c>
@@ -4574,10 +4566,10 @@
         <v>318</v>
       </c>
       <c r="D106">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>319</v>
       </c>
@@ -4588,10 +4580,10 @@
         <v>321</v>
       </c>
       <c r="D107">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>322</v>
       </c>
@@ -4602,10 +4594,10 @@
         <v>324</v>
       </c>
       <c r="D108">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>325</v>
       </c>
@@ -4616,10 +4608,10 @@
         <v>327</v>
       </c>
       <c r="D109">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>328</v>
       </c>
@@ -4630,10 +4622,10 @@
         <v>330</v>
       </c>
       <c r="D110">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>331</v>
       </c>
@@ -4644,10 +4636,10 @@
         <v>333</v>
       </c>
       <c r="D111">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>334</v>
       </c>
@@ -4658,10 +4650,10 @@
         <v>336</v>
       </c>
       <c r="D112">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>337</v>
       </c>
@@ -4672,10 +4664,10 @@
         <v>339</v>
       </c>
       <c r="D113">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>340</v>
       </c>
@@ -4686,10 +4678,10 @@
         <v>342</v>
       </c>
       <c r="D114">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>343</v>
       </c>
@@ -4700,10 +4692,10 @@
         <v>345</v>
       </c>
       <c r="D115">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>346</v>
       </c>
@@ -4714,10 +4706,10 @@
         <v>348</v>
       </c>
       <c r="D116">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>349</v>
       </c>
@@ -4728,10 +4720,10 @@
         <v>351</v>
       </c>
       <c r="D117">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>352</v>
       </c>
@@ -4742,10 +4734,10 @@
         <v>354</v>
       </c>
       <c r="D118">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>355</v>
       </c>
@@ -4756,10 +4748,10 @@
         <v>357</v>
       </c>
       <c r="D119">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>358</v>
       </c>
@@ -4770,10 +4762,10 @@
         <v>360</v>
       </c>
       <c r="D120">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>361</v>
       </c>
@@ -4784,10 +4776,10 @@
         <v>363</v>
       </c>
       <c r="D121">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>364</v>
       </c>
@@ -4798,10 +4790,10 @@
         <v>366</v>
       </c>
       <c r="D122">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>367</v>
       </c>
@@ -4812,10 +4804,10 @@
         <v>369</v>
       </c>
       <c r="D123">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>370</v>
       </c>
@@ -4826,10 +4818,10 @@
         <v>372</v>
       </c>
       <c r="D124">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>373</v>
       </c>
@@ -4840,10 +4832,10 @@
         <v>375</v>
       </c>
       <c r="D125">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>376</v>
       </c>
@@ -4854,10 +4846,10 @@
         <v>378</v>
       </c>
       <c r="D126">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>379</v>
       </c>
@@ -4868,10 +4860,10 @@
         <v>381</v>
       </c>
       <c r="D127">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>382</v>
       </c>
@@ -4882,10 +4874,10 @@
         <v>384</v>
       </c>
       <c r="D128">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>385</v>
       </c>
@@ -4896,10 +4888,10 @@
         <v>387</v>
       </c>
       <c r="D129">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>388</v>
       </c>
@@ -4910,10 +4902,10 @@
         <v>390</v>
       </c>
       <c r="D130">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>391</v>
       </c>
@@ -4924,10 +4916,10 @@
         <v>393</v>
       </c>
       <c r="D131">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>394</v>
       </c>
@@ -4938,10 +4930,10 @@
         <v>396</v>
       </c>
       <c r="D132">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>397</v>
       </c>
@@ -4952,10 +4944,10 @@
         <v>399</v>
       </c>
       <c r="D133">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>400</v>
       </c>
@@ -4966,10 +4958,10 @@
         <v>402</v>
       </c>
       <c r="D134">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>403</v>
       </c>
@@ -4980,10 +4972,10 @@
         <v>405</v>
       </c>
       <c r="D135">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>406</v>
       </c>
@@ -4994,10 +4986,10 @@
         <v>408</v>
       </c>
       <c r="D136">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>409</v>
       </c>
@@ -5008,10 +5000,10 @@
         <v>411</v>
       </c>
       <c r="D137">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>412</v>
       </c>
@@ -5022,10 +5014,10 @@
         <v>414</v>
       </c>
       <c r="D138">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>415</v>
       </c>
@@ -5036,10 +5028,10 @@
         <v>417</v>
       </c>
       <c r="D139">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>418</v>
       </c>
@@ -5050,10 +5042,10 @@
         <v>420</v>
       </c>
       <c r="D140">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>421</v>
       </c>
@@ -5064,10 +5056,10 @@
         <v>423</v>
       </c>
       <c r="D141">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>424</v>
       </c>
@@ -5078,10 +5070,10 @@
         <v>426</v>
       </c>
       <c r="D142">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>427</v>
       </c>
@@ -5092,10 +5084,10 @@
         <v>429</v>
       </c>
       <c r="D143">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>430</v>
       </c>
@@ -5106,10 +5098,10 @@
         <v>432</v>
       </c>
       <c r="D144">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>433</v>
       </c>
@@ -5120,10 +5112,10 @@
         <v>435</v>
       </c>
       <c r="D145">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>436</v>
       </c>
@@ -5134,10 +5126,10 @@
         <v>438</v>
       </c>
       <c r="D146">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>439</v>
       </c>
@@ -5148,10 +5140,10 @@
         <v>441</v>
       </c>
       <c r="D147">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>442</v>
       </c>
@@ -5162,10 +5154,10 @@
         <v>444</v>
       </c>
       <c r="D148">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>445</v>
       </c>
@@ -5176,10 +5168,10 @@
         <v>447</v>
       </c>
       <c r="D149">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>448</v>
       </c>
@@ -5190,10 +5182,10 @@
         <v>450</v>
       </c>
       <c r="D150">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -5204,10 +5196,10 @@
         <v>453</v>
       </c>
       <c r="D151">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>454</v>
       </c>
@@ -5218,10 +5210,10 @@
         <v>456</v>
       </c>
       <c r="D152">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>457</v>
       </c>
@@ -5232,10 +5224,10 @@
         <v>459</v>
       </c>
       <c r="D153">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>460</v>
       </c>
@@ -5246,10 +5238,10 @@
         <v>462</v>
       </c>
       <c r="D154">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>463</v>
       </c>
@@ -5260,10 +5252,10 @@
         <v>465</v>
       </c>
       <c r="D155">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>466</v>
       </c>
@@ -5274,10 +5266,10 @@
         <v>468</v>
       </c>
       <c r="D156">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>469</v>
       </c>
@@ -5288,10 +5280,10 @@
         <v>471</v>
       </c>
       <c r="D157">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>472</v>
       </c>
@@ -5302,10 +5294,10 @@
         <v>474</v>
       </c>
       <c r="D158">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>475</v>
       </c>
@@ -5316,10 +5308,10 @@
         <v>477</v>
       </c>
       <c r="D159">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>478</v>
       </c>
@@ -5330,10 +5322,10 @@
         <v>480</v>
       </c>
       <c r="D160">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>481</v>
       </c>
@@ -5344,10 +5336,10 @@
         <v>483</v>
       </c>
       <c r="D161">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>484</v>
       </c>
@@ -5358,10 +5350,10 @@
         <v>486</v>
       </c>
       <c r="D162">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>487</v>
       </c>
@@ -5372,10 +5364,10 @@
         <v>489</v>
       </c>
       <c r="D163">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>490</v>
       </c>
@@ -5386,10 +5378,10 @@
         <v>492</v>
       </c>
       <c r="D164">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>493</v>
       </c>
@@ -5400,10 +5392,10 @@
         <v>495</v>
       </c>
       <c r="D165">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>496</v>
       </c>
@@ -5414,10 +5406,10 @@
         <v>498</v>
       </c>
       <c r="D166">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>499</v>
       </c>
@@ -5428,10 +5420,10 @@
         <v>501</v>
       </c>
       <c r="D167">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>502</v>
       </c>
@@ -5442,10 +5434,10 @@
         <v>504</v>
       </c>
       <c r="D168">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>505</v>
       </c>
@@ -5456,10 +5448,10 @@
         <v>507</v>
       </c>
       <c r="D169">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>508</v>
       </c>
@@ -5470,10 +5462,10 @@
         <v>510</v>
       </c>
       <c r="D170">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>511</v>
       </c>
@@ -5484,10 +5476,10 @@
         <v>513</v>
       </c>
       <c r="D171">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>514</v>
       </c>
@@ -5498,10 +5490,10 @@
         <v>516</v>
       </c>
       <c r="D172">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>517</v>
       </c>
@@ -5512,10 +5504,10 @@
         <v>519</v>
       </c>
       <c r="D173">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>520</v>
       </c>
@@ -5526,10 +5518,10 @@
         <v>522</v>
       </c>
       <c r="D174">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>523</v>
       </c>
@@ -5540,10 +5532,10 @@
         <v>525</v>
       </c>
       <c r="D175">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>526</v>
       </c>
@@ -5554,10 +5546,10 @@
         <v>528</v>
       </c>
       <c r="D176">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>529</v>
       </c>
@@ -5568,10 +5560,10 @@
         <v>531</v>
       </c>
       <c r="D177">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>532</v>
       </c>
@@ -5582,10 +5574,10 @@
         <v>534</v>
       </c>
       <c r="D178">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>535</v>
       </c>
@@ -5596,10 +5588,10 @@
         <v>537</v>
       </c>
       <c r="D179">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>538</v>
       </c>
@@ -5610,10 +5602,10 @@
         <v>540</v>
       </c>
       <c r="D180">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>541</v>
       </c>
@@ -5624,10 +5616,10 @@
         <v>543</v>
       </c>
       <c r="D181">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>544</v>
       </c>
@@ -5638,10 +5630,10 @@
         <v>546</v>
       </c>
       <c r="D182">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>547</v>
       </c>
@@ -5652,10 +5644,10 @@
         <v>549</v>
       </c>
       <c r="D183">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>550</v>
       </c>
@@ -5666,10 +5658,10 @@
         <v>552</v>
       </c>
       <c r="D184">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>553</v>
       </c>
@@ -5680,10 +5672,10 @@
         <v>555</v>
       </c>
       <c r="D185">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>556</v>
       </c>
@@ -5694,10 +5686,10 @@
         <v>558</v>
       </c>
       <c r="D186">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>559</v>
       </c>
@@ -5708,10 +5700,10 @@
         <v>561</v>
       </c>
       <c r="D187">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>562</v>
       </c>
@@ -5722,10 +5714,10 @@
         <v>564</v>
       </c>
       <c r="D188">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>565</v>
       </c>
@@ -5736,10 +5728,10 @@
         <v>567</v>
       </c>
       <c r="D189">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>568</v>
       </c>
@@ -5750,10 +5742,10 @@
         <v>570</v>
       </c>
       <c r="D190">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>571</v>
       </c>
@@ -5764,10 +5756,10 @@
         <v>573</v>
       </c>
       <c r="D191">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>574</v>
       </c>
@@ -5778,10 +5770,10 @@
         <v>576</v>
       </c>
       <c r="D192">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>577</v>
       </c>
@@ -5792,10 +5784,10 @@
         <v>579</v>
       </c>
       <c r="D193">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>580</v>
       </c>
@@ -5806,10 +5798,10 @@
         <v>582</v>
       </c>
       <c r="D194">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>583</v>
       </c>
@@ -5820,10 +5812,10 @@
         <v>585</v>
       </c>
       <c r="D195">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>586</v>
       </c>
@@ -5834,10 +5826,10 @@
         <v>588</v>
       </c>
       <c r="D196">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>589</v>
       </c>
@@ -5848,10 +5840,10 @@
         <v>591</v>
       </c>
       <c r="D197">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>592</v>
       </c>
@@ -5862,10 +5854,10 @@
         <v>594</v>
       </c>
       <c r="D198">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>595</v>
       </c>
@@ -5876,10 +5868,10 @@
         <v>597</v>
       </c>
       <c r="D199">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>598</v>
       </c>
@@ -5890,10 +5882,10 @@
         <v>600</v>
       </c>
       <c r="D200">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>601</v>
       </c>
@@ -5904,10 +5896,10 @@
         <v>603</v>
       </c>
       <c r="D201">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>604</v>
       </c>
@@ -5918,10 +5910,10 @@
         <v>606</v>
       </c>
       <c r="D202">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>607</v>
       </c>
@@ -5932,10 +5924,10 @@
         <v>609</v>
       </c>
       <c r="D203">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>610</v>
       </c>
@@ -5946,10 +5938,10 @@
         <v>612</v>
       </c>
       <c r="D204">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>613</v>
       </c>
@@ -5960,10 +5952,10 @@
         <v>615</v>
       </c>
       <c r="D205">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>616</v>
       </c>
@@ -5974,10 +5966,10 @@
         <v>618</v>
       </c>
       <c r="D206">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>619</v>
       </c>
@@ -5988,10 +5980,10 @@
         <v>621</v>
       </c>
       <c r="D207">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>622</v>
       </c>
@@ -6002,10 +5994,10 @@
         <v>624</v>
       </c>
       <c r="D208">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>625</v>
       </c>
@@ -6016,10 +6008,10 @@
         <v>627</v>
       </c>
       <c r="D209">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>628</v>
       </c>
@@ -6030,10 +6022,10 @@
         <v>630</v>
       </c>
       <c r="D210">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>631</v>
       </c>
@@ -6044,10 +6036,10 @@
         <v>633</v>
       </c>
       <c r="D211">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>634</v>
       </c>
@@ -6058,10 +6050,10 @@
         <v>636</v>
       </c>
       <c r="D212">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>637</v>
       </c>
@@ -6072,10 +6064,10 @@
         <v>639</v>
       </c>
       <c r="D213">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>640</v>
       </c>
@@ -6086,10 +6078,10 @@
         <v>642</v>
       </c>
       <c r="D214">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>643</v>
       </c>
@@ -6100,10 +6092,10 @@
         <v>645</v>
       </c>
       <c r="D215">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>646</v>
       </c>
@@ -6114,10 +6106,10 @@
         <v>648</v>
       </c>
       <c r="D216">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>649</v>
       </c>
@@ -6128,10 +6120,10 @@
         <v>651</v>
       </c>
       <c r="D217">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>652</v>
       </c>
@@ -6142,10 +6134,10 @@
         <v>654</v>
       </c>
       <c r="D218">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>655</v>
       </c>
@@ -6156,10 +6148,10 @@
         <v>657</v>
       </c>
       <c r="D219">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>658</v>
       </c>
@@ -6170,10 +6162,10 @@
         <v>660</v>
       </c>
       <c r="D220">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>661</v>
       </c>
@@ -6184,10 +6176,10 @@
         <v>663</v>
       </c>
       <c r="D221">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>664</v>
       </c>
@@ -6198,10 +6190,10 @@
         <v>666</v>
       </c>
       <c r="D222">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>667</v>
       </c>
@@ -6212,10 +6204,10 @@
         <v>669</v>
       </c>
       <c r="D223">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>670</v>
       </c>
@@ -6226,10 +6218,10 @@
         <v>672</v>
       </c>
       <c r="D224">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>673</v>
       </c>
@@ -6240,10 +6232,10 @@
         <v>675</v>
       </c>
       <c r="D225">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>676</v>
       </c>
@@ -6254,10 +6246,10 @@
         <v>678</v>
       </c>
       <c r="D226">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>679</v>
       </c>
@@ -6268,10 +6260,10 @@
         <v>681</v>
       </c>
       <c r="D227">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>682</v>
       </c>
@@ -6282,10 +6274,10 @@
         <v>684</v>
       </c>
       <c r="D228">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>685</v>
       </c>
@@ -6296,10 +6288,10 @@
         <v>687</v>
       </c>
       <c r="D229">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>688</v>
       </c>
@@ -6310,10 +6302,10 @@
         <v>690</v>
       </c>
       <c r="D230">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>691</v>
       </c>
@@ -6324,10 +6316,10 @@
         <v>693</v>
       </c>
       <c r="D231">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>694</v>
       </c>
@@ -6338,10 +6330,10 @@
         <v>696</v>
       </c>
       <c r="D232">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>697</v>
       </c>
@@ -6352,10 +6344,10 @@
         <v>699</v>
       </c>
       <c r="D233">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>700</v>
       </c>
@@ -6366,10 +6358,10 @@
         <v>702</v>
       </c>
       <c r="D234">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>703</v>
       </c>
@@ -6380,10 +6372,10 @@
         <v>705</v>
       </c>
       <c r="D235">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>706</v>
       </c>
@@ -6394,10 +6386,10 @@
         <v>708</v>
       </c>
       <c r="D236">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>709</v>
       </c>
@@ -6408,10 +6400,10 @@
         <v>711</v>
       </c>
       <c r="D237">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>712</v>
       </c>
@@ -6422,10 +6414,10 @@
         <v>714</v>
       </c>
       <c r="D238">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>715</v>
       </c>
@@ -6436,10 +6428,10 @@
         <v>717</v>
       </c>
       <c r="D239">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>718</v>
       </c>
@@ -6450,10 +6442,10 @@
         <v>720</v>
       </c>
       <c r="D240">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>721</v>
       </c>
@@ -6464,10 +6456,10 @@
         <v>723</v>
       </c>
       <c r="D241">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>724</v>
       </c>
@@ -6478,10 +6470,10 @@
         <v>726</v>
       </c>
       <c r="D242">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>727</v>
       </c>
@@ -6492,10 +6484,10 @@
         <v>729</v>
       </c>
       <c r="D243">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>730</v>
       </c>
@@ -6506,10 +6498,10 @@
         <v>732</v>
       </c>
       <c r="D244">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>733</v>
       </c>
@@ -6520,10 +6512,10 @@
         <v>735</v>
       </c>
       <c r="D245">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>736</v>
       </c>
@@ -6534,10 +6526,10 @@
         <v>738</v>
       </c>
       <c r="D246">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>739</v>
       </c>
@@ -6548,10 +6540,10 @@
         <v>741</v>
       </c>
       <c r="D247">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>742</v>
       </c>
@@ -6562,10 +6554,10 @@
         <v>744</v>
       </c>
       <c r="D248">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>745</v>
       </c>
@@ -6576,20 +6568,6 @@
         <v>747</v>
       </c>
       <c r="D249">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>748</v>
-      </c>
-      <c r="B250" t="s">
-        <v>749</v>
-      </c>
-      <c r="C250" t="s">
-        <v>750</v>
-      </c>
-      <c r="D250">
         <v>716</v>
       </c>
     </row>
